--- a/tools/bsi/bsi-c5-2020.xlsx
+++ b/tools/bsi/bsi-c5-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/bsi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3457778F-4FB1-6A4D-A640-AD90559DC9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DDFF5C-F719-8B4B-A9FA-75340BFE8664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="-23980" windowWidth="34560" windowHeight="20480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="-23980" windowWidth="34560" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="1" r:id="rId1"/>
@@ -1418,9 +1418,6 @@
   </si>
   <si>
     <t>BSI-C5-2020</t>
-  </si>
-  <si>
-    <t>Criteria Catalogue C5</t>
   </si>
   <si>
     <t>Organisation of Information Security (OIS)</t>
@@ -2101,6 +2098,9 @@
   <si>
     <t>This criterion supplements the General Condition BC-01.
 The cloud architecture must exist in such a way that it enables the technical design of the IT infrastructure to provide the cloud service in accordance with the data location specifications agreed with the customer.</t>
+  </si>
+  <si>
+    <t>Cloud Computing Compliance Criteria Catalogue (C5)</t>
   </si>
 </sst>
 </file>
@@ -2496,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2551,7 +2551,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>373</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2575,7 +2575,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2583,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2607,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>373</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2647,7 +2647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE6C14B-DF6F-414C-A3AB-E5DF43165146}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -2676,7 +2676,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.2">
@@ -2698,13 +2698,13 @@
         <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>264</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -2724,7 +2724,7 @@
         <v>265</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="192" x14ac:dyDescent="0.2">
@@ -2744,7 +2744,7 @@
         <v>266</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="176" x14ac:dyDescent="0.2">
@@ -2764,7 +2764,7 @@
         <v>267</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -2784,7 +2784,7 @@
         <v>268</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="176" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
         <v>269</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="208" x14ac:dyDescent="0.2">
@@ -2821,10 +2821,10 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -2852,7 +2852,7 @@
         <v>270</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="144" x14ac:dyDescent="0.2">
@@ -2889,7 +2889,7 @@
         <v>272</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="256" x14ac:dyDescent="0.2">
@@ -2917,7 +2917,7 @@
         <v>273</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -2937,7 +2937,7 @@
         <v>274</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -2957,7 +2957,7 @@
         <v>275</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="144" x14ac:dyDescent="0.2">
@@ -2977,7 +2977,7 @@
         <v>276</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2994,10 +2994,10 @@
         <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="240" x14ac:dyDescent="0.2">
@@ -3017,7 +3017,7 @@
         <v>277</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="395" x14ac:dyDescent="0.2">
@@ -3045,7 +3045,7 @@
         <v>278</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="395" x14ac:dyDescent="0.2">
@@ -3082,7 +3082,7 @@
         <v>280</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3102,7 +3102,7 @@
         <v>281</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -3122,7 +3122,7 @@
         <v>282</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3139,10 +3139,10 @@
         <v>46</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="380" x14ac:dyDescent="0.2">
@@ -3170,7 +3170,7 @@
         <v>283</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -3190,7 +3190,7 @@
         <v>284</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -3207,10 +3207,10 @@
         <v>49</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="272" x14ac:dyDescent="0.2">
@@ -3238,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D33" t="s">
         <v>51</v>
@@ -3247,7 +3247,7 @@
         <v>286</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="335" x14ac:dyDescent="0.2">
@@ -3267,7 +3267,7 @@
         <v>287</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3287,7 +3287,7 @@
         <v>288</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -3315,7 +3315,7 @@
         <v>289</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -3335,7 +3335,7 @@
         <v>290</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="176" x14ac:dyDescent="0.2">
@@ -3355,7 +3355,7 @@
         <v>291</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -3372,10 +3372,10 @@
         <v>57</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3395,7 +3395,7 @@
         <v>292</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="144" x14ac:dyDescent="0.2">
@@ -3415,7 +3415,7 @@
         <v>293</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3435,7 +3435,7 @@
         <v>294</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -3455,7 +3455,7 @@
         <v>295</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3475,7 +3475,7 @@
         <v>296</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="208" x14ac:dyDescent="0.2">
@@ -3495,7 +3495,7 @@
         <v>297</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="208" x14ac:dyDescent="0.2">
@@ -3515,7 +3515,7 @@
         <v>298</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -3532,7 +3532,7 @@
         <v>65</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3569,7 +3569,7 @@
         <v>300</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3589,7 +3589,7 @@
         <v>301</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3609,7 +3609,7 @@
         <v>302</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3629,7 +3629,7 @@
         <v>303</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -3649,7 +3649,7 @@
         <v>304</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="176" x14ac:dyDescent="0.2">
@@ -3669,7 +3669,7 @@
         <v>305</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3689,7 +3689,7 @@
         <v>306</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3726,7 +3726,7 @@
         <v>308</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="224" x14ac:dyDescent="0.2">
@@ -3746,7 +3746,7 @@
         <v>309</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3766,7 +3766,7 @@
         <v>310</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="350" x14ac:dyDescent="0.2">
@@ -3794,7 +3794,7 @@
         <v>311</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3814,7 +3814,7 @@
         <v>312</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -3834,7 +3834,7 @@
         <v>313</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3854,7 +3854,7 @@
         <v>314</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3874,7 +3874,7 @@
         <v>315</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -3894,7 +3894,7 @@
         <v>316</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3914,7 +3914,7 @@
         <v>317</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="192" x14ac:dyDescent="0.2">
@@ -3931,10 +3931,10 @@
         <v>85</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -3954,7 +3954,7 @@
         <v>318</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="144" x14ac:dyDescent="0.2">
@@ -3979,10 +3979,10 @@
         <v>87</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -4002,7 +4002,7 @@
         <v>319</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -4022,7 +4022,7 @@
         <v>320</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="272" x14ac:dyDescent="0.2">
@@ -4042,7 +4042,7 @@
         <v>321</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4070,7 +4070,7 @@
         <v>322</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="176" x14ac:dyDescent="0.2">
@@ -4090,7 +4090,7 @@
         <v>323</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="128" x14ac:dyDescent="0.2">
@@ -4110,7 +4110,7 @@
         <v>324</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4130,7 +4130,7 @@
         <v>325</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>327</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4187,7 +4187,7 @@
         <v>328</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4204,10 +4204,10 @@
         <v>98</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -4252,7 +4252,7 @@
         <v>330</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -4272,7 +4272,7 @@
         <v>331</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="144" x14ac:dyDescent="0.2">
@@ -4294,13 +4294,13 @@
         <v>221</v>
       </c>
       <c r="D90" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>332</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -4320,7 +4320,7 @@
         <v>333</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="224" x14ac:dyDescent="0.2">
@@ -4340,7 +4340,7 @@
         <v>334</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
         <v>336</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -4397,7 +4397,7 @@
         <v>337</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4434,7 +4434,7 @@
         <v>339</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -4454,7 +4454,7 @@
         <v>340</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4479,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="304" x14ac:dyDescent="0.2">
@@ -4499,7 +4499,7 @@
         <v>342</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -4536,7 +4536,7 @@
         <v>344</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="350" x14ac:dyDescent="0.2">
@@ -4556,7 +4556,7 @@
         <v>345</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="272" x14ac:dyDescent="0.2">
@@ -4573,10 +4573,10 @@
         <v>115</v>
       </c>
       <c r="E105" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -4604,7 +4604,7 @@
         <v>346</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4624,7 +4624,7 @@
         <v>347</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -4644,7 +4644,7 @@
         <v>348</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -4681,7 +4681,7 @@
         <v>350</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -4726,7 +4726,7 @@
         <v>352</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="304" x14ac:dyDescent="0.2">
@@ -4746,7 +4746,7 @@
         <v>353</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -4766,7 +4766,7 @@
         <v>354</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="176" x14ac:dyDescent="0.2">
@@ -4794,7 +4794,7 @@
         <v>355</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -4814,7 +4814,7 @@
         <v>356</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="256" x14ac:dyDescent="0.2">
@@ -4831,10 +4831,10 @@
         <v>127</v>
       </c>
       <c r="E120" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -4854,7 +4854,7 @@
         <v>357</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4890,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D124" t="s">
         <v>130</v>
@@ -4899,7 +4899,7 @@
         <v>359</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4933,7 +4933,7 @@
         <v>132</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -4941,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="320" x14ac:dyDescent="0.2">
@@ -4958,7 +4958,7 @@
         <v>133</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="208" x14ac:dyDescent="0.2">
@@ -4978,7 +4978,7 @@
         <v>361</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -4998,7 +4998,7 @@
         <v>362</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="208" x14ac:dyDescent="0.2">
@@ -5018,7 +5018,7 @@
         <v>363</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -5038,7 +5038,7 @@
         <v>364</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -5058,7 +5058,7 @@
         <v>365</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="144" x14ac:dyDescent="0.2">
@@ -5078,7 +5078,7 @@
         <v>366</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="128" x14ac:dyDescent="0.2">
@@ -5098,7 +5098,7 @@
         <v>367</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -5118,7 +5118,7 @@
         <v>368</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -5138,7 +5138,7 @@
         <v>369</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -5158,7 +5158,7 @@
         <v>370</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -5178,7 +5178,7 @@
         <v>371</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
